--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -170,9 +170,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -215,6 +215,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -224,35 +238,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,39 +268,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,14 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -338,15 +310,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,19 +374,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,163 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,24 +585,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,11 +635,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,8 +660,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -703,130 +703,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42857142857143" defaultRowHeight="15"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -97,7 +97,7 @@
     <t>PRE_01_01</t>
   </si>
   <si>
-    <t xml:space="preserve"> response[3].balance=57800.0</t>
+    <t xml:space="preserve"> response[2].balance=50000.0</t>
   </si>
   <si>
     <t xml:space="preserve"> response[3].balance</t>
@@ -216,12 +216,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -231,30 +246,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,17 +276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +291,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -300,11 +315,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,36 +346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,25 +374,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,37 +518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,19 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,91 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,13 +583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,7 +602,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +618,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,33 +648,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,12 +671,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -706,127 +706,127 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42857142857143" defaultRowHeight="15"/>
@@ -1195,7 +1195,7 @@
     <col min="6" max="6" width="8.71428571428571" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5714285714286" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5714285714286" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.2857142857143" style="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.57142857142857" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.5714285714286" style="1" customWidth="1"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>TCID</t>
   </si>
@@ -100,7 +100,7 @@
     <t xml:space="preserve"> response[2].balance=50000.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> response[3].balance</t>
+    <t xml:space="preserve"> response[2].balance</t>
   </si>
   <si>
     <t>TC001</t>
@@ -162,6 +162,9 @@
   <si>
     <t>response.amount=100
 Position_01[3].balance=+100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> response[3].balance</t>
   </si>
 </sst>
 </file>
@@ -169,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -216,19 +219,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -249,14 +260,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +286,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -291,17 +301,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +332,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -322,38 +354,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,79 +377,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,103 +527,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,26 +586,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,17 +634,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +650,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,162 +683,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,8 +1184,8 @@
   <sheetPr/>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42857142857143" defaultRowHeight="15"/>
@@ -1338,7 +1341,7 @@
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="7"/>
       <c r="R3" s="6"/>
       <c r="S3" s="8"/>
     </row>
@@ -1472,7 +1475,9 @@
       <c r="M6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="7"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -98,7 +98,7 @@
     <t>$[2].balance=50000.0</t>
   </si>
   <si>
-    <t>response[2].balance</t>
+    <t>$[2].balance</t>
   </si>
   <si>
     <t>TC001</t>
@@ -125,7 +125,8 @@
     <t>$.amount=100.0</t>
   </si>
   <si>
-    <t>response.amount</t>
+    <t>$.amount
+$.currency</t>
   </si>
   <si>
     <t>TC002</t>
@@ -149,10 +150,13 @@
     <t>$.result.amount=100.0</t>
   </si>
   <si>
-    <t>response.result.amount</t>
+    <t>$.result.amount</t>
   </si>
   <si>
     <t>TC003</t>
+  </si>
+  <si>
+    <t>$.amount</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1246,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1534,7 +1538,7 @@
         <v>34</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="4"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>TCID</t>
   </si>
@@ -141,13 +141,19 @@
     <t>pacs.008_outbound</t>
   </si>
   <si>
+    <t>default2</t>
+  </si>
+  <si>
     <t>x_pacs.008_out</t>
   </si>
   <si>
     <t>x_pacs.008_out_cny</t>
   </si>
   <si>
-    <t>$.result.amount=100.0</t>
+    <t xml:space="preserve">{"amount": ${TC001.$.amount}} </t>
+  </si>
+  <si>
+    <t>$.result.amount=${TC001.$.amount}</t>
   </si>
   <si>
     <t>$.result.amount</t>
@@ -164,9 +170,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -211,23 +217,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,30 +239,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +270,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -310,6 +301,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -317,46 +345,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,79 +383,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,36 +527,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,61 +539,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,21 +588,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,11 +616,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,21 +689,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -696,130 +702,130 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,7 +1252,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1467,16 +1473,16 @@
         <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>22</v>
@@ -1488,10 +1494,10 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
@@ -1501,7 +1507,7 @@
     </row>
     <row r="6" ht="31.5" customHeight="1" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>28</v>
@@ -1538,7 +1544,7 @@
         <v>34</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="4"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>TCID</t>
   </si>
@@ -86,40 +86,43 @@
     <t>default</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PRE_01</t>
+  </si>
+  <si>
+    <t>$[2].balance=50000.0</t>
+  </si>
+  <si>
+    <t>$[2].balance</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>pacs008 in cny 100</t>
+  </si>
+  <si>
+    <t>[TestSetup]PRE_01</t>
+  </si>
+  <si>
+    <t>pacs.008_inbound</t>
+  </si>
+  <si>
+    <t>j_pacs.008_in</t>
+  </si>
+  <si>
+    <t>j_pacs.008_in_cny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"amount": 100} </t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
     <t>tag1</t>
-  </si>
-  <si>
-    <t>PRE_01</t>
-  </si>
-  <si>
-    <t>$[2].balance=50000.0</t>
-  </si>
-  <si>
-    <t>$[2].balance</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>pacs008 in cny 100</t>
-  </si>
-  <si>
-    <t>[TestSetup]PRE_01</t>
-  </si>
-  <si>
-    <t>pacs.008_inbound</t>
-  </si>
-  <si>
-    <t>j_pacs.008_in</t>
-  </si>
-  <si>
-    <t>j_pacs.008_in_cny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"amount": 100} </t>
   </si>
   <si>
     <t>$.amount=100.0</t>
@@ -170,9 +173,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -212,43 +215,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +296,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -294,6 +320,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -303,66 +337,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,13 +386,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,169 +554,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,6 +591,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,24 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -664,21 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -689,143 +683,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1252,7 +1255,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1356,9 +1359,7 @@
       <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="K2" s="3"/>
       <c r="L2" s="3">
         <v>200</v>
       </c>
@@ -1372,7 +1373,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1389,17 +1390,15 @@
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="6"/>
@@ -1409,46 +1408,46 @@
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:19">
       <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L4" s="3">
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="6"/>
@@ -1458,46 +1457,46 @@
     </row>
     <row r="5" ht="32.25" customHeight="1" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L5" s="3">
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
@@ -1507,44 +1506,44 @@
     </row>
     <row r="6" ht="31.5" customHeight="1" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L6" s="3">
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="4"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -60,21 +60,6 @@
   </si>
   <si>
     <t>Save Fields</t>
-  </si>
-  <si>
-    <t>Act Status</t>
-  </si>
-  <si>
-    <t>Act Result</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Saved Fields</t>
-  </si>
-  <si>
-    <t>API Timing</t>
   </si>
   <si>
     <t>Position_01</t>
@@ -173,12 +158,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -197,51 +182,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006400"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006400"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,12 +196,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -267,7 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,14 +279,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -337,7 +288,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,6 +308,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -357,15 +323,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,24 +564,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,6 +612,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -673,22 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,142 +664,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,25 +813,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1252,10 +1200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1273,15 +1221,11 @@
     <col min="12" max="12" width="10.5809523809524" style="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="1" customWidth="1"/>
     <col min="14" max="14" width="26.8761904761905" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.9714285714286" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.85714285714286" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.8666666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="20" max="1024" width="9.42857142857143" style="1"/>
+    <col min="15" max="1019" width="9.42857142857143" style="1"/>
+    <col min="1020" max="1020" width="9.42857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:19">
+    <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1324,40 +1268,25 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
@@ -1365,195 +1294,168 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="8"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:19">
+    <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" customHeight="1" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:19">
-      <c r="A4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="L4" s="3">
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="32.25" customHeight="1" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" ht="32.25" customHeight="1" spans="1:19">
-      <c r="A5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L5" s="3">
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="10"/>
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" ht="31.5" customHeight="1" spans="1:19">
+    <row r="6" ht="31.5" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="L6" s="3">
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="10"/>
+        <v>43</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="17:17">
-      <c r="Q9" s="11"/>
-    </row>
+    <row r="9" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Save Fields</t>
   </si>
   <si>
-    <t>Position_01</t>
+    <t>Position</t>
   </si>
   <si>
     <t>positions</t>
@@ -74,12 +74,12 @@
     <t>N</t>
   </si>
   <si>
-    <t>PRE_01</t>
-  </si>
-  <si>
     <t>$[2].balance=50000.0</t>
   </si>
   <si>
+    <t>PRE</t>
+  </si>
+  <si>
     <t>$[2].balance</t>
   </si>
   <si>
@@ -89,7 +89,7 @@
     <t>pacs008 in cny 100</t>
   </si>
   <si>
-    <t>[TestSetup]PRE_01</t>
+    <t>[TestSetup]PRE</t>
   </si>
   <si>
     <t>pacs.008_inbound</t>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t xml:space="preserve">{"amount": 100} </t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>tag1</t>
@@ -123,7 +120,7 @@
     <t>pacs008 out cny 100</t>
   </si>
   <si>
-    <t>[TestSetup]Position_01</t>
+    <t>[TestSetup]Position</t>
   </si>
   <si>
     <t>pacs.008_outbound</t>
@@ -148,6 +145,19 @@
   </si>
   <si>
     <t>TC003</t>
+  </si>
+  <si>
+    <t>[Checkwith]Position</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>$.amount=100.0
+Position.$[3].balance=+100
+Position.$[0].balance=+0
+Position.$[1].balance=+0
+Position.$[2].balance=+0</t>
   </si>
   <si>
     <t>$.amount</t>
@@ -158,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -182,33 +192,64 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -216,6 +257,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -224,9 +273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,14 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -286,15 +326,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -302,37 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,19 +363,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,163 +525,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +572,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -569,6 +603,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,191 +669,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1213,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M13" sqref="M11:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1292,12 +1302,14 @@
       <c r="L2" s="3">
         <v>200</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1319,7 +1331,7 @@
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>20</v>
@@ -1354,68 +1366,68 @@
         <v>27</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="L4" s="3">
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" ht="32.25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="L5" s="3">
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="4" t="s">
+    </row>
+    <row r="6" ht="78.75" spans="1:14">
+      <c r="A6" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="6" ht="31.5" customHeight="1" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1423,7 +1435,9 @@
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1440,19 +1454,19 @@
         <v>27</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="L6" s="3">
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customHeight="1"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">{"amount": 100} </t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>tag1</t>
@@ -120,7 +123,7 @@
     <t>pacs008 out cny 100</t>
   </si>
   <si>
-    <t>[TestSetup]Position</t>
+    <t>[Checkwith]Position</t>
   </si>
   <si>
     <t>pacs.008_outbound</t>
@@ -138,7 +141,8 @@
     <t xml:space="preserve">{"amount": ${TC001.$.amount}} </t>
   </si>
   <si>
-    <t>$.result.amount=${TC001.$.amount}</t>
+    <t>$.result.amount=${TC001.$.amount}
+Position.$[3].balance=-100</t>
   </si>
   <si>
     <t>$.result.amount</t>
@@ -147,17 +151,8 @@
     <t>TC003</t>
   </si>
   <si>
-    <t>[Checkwith]Position</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>$.amount=100.0
-Position.$[3].balance=+100
-Position.$[0].balance=+0
-Position.$[1].balance=+0
-Position.$[2].balance=+0</t>
+Position.$[3].balance=+100</t>
   </si>
   <si>
     <t>$.amount</t>
@@ -1213,7 +1208,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M11:M13"/>
+      <selection activeCell="K10" sqref="K10:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1366,68 +1361,68 @@
         <v>27</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="3">
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="47.25" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="32.25" customHeight="1" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="L5" s="3">
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="6" ht="78.75" spans="1:14">
+    <row r="6" ht="31.5" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1436,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
@@ -1454,19 +1449,19 @@
         <v>27</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="3">
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" customHeight="1"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -163,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -193,27 +193,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -221,63 +291,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +313,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -298,46 +328,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,13 +358,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,169 +430,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +567,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -586,18 +606,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,51 +664,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -677,130 +677,130 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t xml:space="preserve">{"amount": 100} </t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>tag1</t>
@@ -149,6 +146,14 @@
   </si>
   <si>
     <t>TC003</t>
+  </si>
+  <si>
+    <t>[Checkwith]Position
+[TestSetup]PRE
+[TestTeardown]PRE</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>$.amount=100.0
@@ -163,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -187,26 +192,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -218,36 +215,83 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,14 +305,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -276,68 +327,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,19 +363,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,163 +507,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,65 +568,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +602,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -669,138 +674,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,7 +1213,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1361,68 +1366,68 @@
         <v>27</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="L4" s="3">
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" ht="47.25" spans="1:14">
       <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="L5" s="3">
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="4" t="s">
+    </row>
+    <row r="6" ht="47.25" spans="1:14">
+      <c r="A6" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="6" ht="31.5" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1430,8 +1435,8 @@
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
@@ -1449,19 +1454,19 @@
         <v>27</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="L6" s="3">
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customHeight="1"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -104,6 +104,9 @@
     <t xml:space="preserve">{"amount": 100} </t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>tag1</t>
   </si>
   <si>
@@ -151,9 +154,6 @@
     <t>[Checkwith]Position
 [TestSetup]PRE
 [TestTeardown]PRE</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>$.amount=100.0
@@ -168,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -199,11 +199,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -212,83 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -305,6 +288,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -314,28 +313,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,13 +363,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,13 +423,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +489,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,121 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,12 +544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,36 +572,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -622,6 +592,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,6 +646,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -674,138 +674,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1366,68 +1366,68 @@
         <v>27</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="3">
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="47.25" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="3">
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1436,7 +1436,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
@@ -1454,10 +1454,10 @@
         <v>27</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="3">
         <v>200</v>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,20 +5,22 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
     <sheet name="Headers" sheetId="2" r:id="rId2"/>
     <sheet name="BodyTemplates" sheetId="3" r:id="rId3"/>
     <sheet name="BodyDefaults" sheetId="4" r:id="rId4"/>
+    <sheet name="Endpoints" sheetId="5" r:id="rId5"/>
+    <sheet name="WebEnvironments " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
   <si>
     <t>TCID</t>
   </si>
@@ -161,6 +163,275 @@
   </si>
   <si>
     <t>$.amount</t>
+  </si>
+  <si>
+    <t>HeaderName</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>{
+  "Content-Type": "application/json",
+  "accept": "application/json",
+  "Authorization": "token={{uuid4}}",
+  "timestamp": "{{timestamp}}",
+  "timestamp2": "{{formated_timestamp}}",
+  "bic": "{{bic}}",
+  "user_agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "Content-Type": "application/json",
+  "accept": "application/json",
+  "Authorization": "{{uuid4}}",
+  "user_agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36"
+}</t>
+  </si>
+  <si>
+    <t>TemplateName</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>pacs.008_in</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>{
+  "transaction_id": "{{transaction_id}}",
+  "amount": {{amount}},
+  "currency": "{{currency}}",
+  "debtor": {
+    "name": "{{debtor.name}}",
+    "phones": [
+      {% for phone in debtor.phones %}
+      "{{ phone }}"
+    {% if not loop.last %},{% endif %}
+    {% endfor %}
+    ],
+    "email": "{{debtor.email}}",
+    "address": "{{debtor.address}}"
+  },
+  "creditor": {
+    "name": "Hal Jordan",
+    "phones": [
+      {% for phone in creditor.phones %}
+      "{{ phone }}"
+    {% if not loop.last %},{% endif %}
+    {% endfor %}
+    ],
+    "email": "{{debtor.email}}",
+    "address": "{{debtor.address}}"
+  }
+}</t>
+  </si>
+  <si>
+    <t>pacs.008_out</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>&lt;Document xmlns="urn:iso:std:iso:20022:tech:xsd:pacs.008.001.02"&gt;
+    &lt;CdtTrfTxInf&gt;
+        &lt;PmtId&gt;
+            &lt;InstrId&gt;{{ InstrId }}&lt;/InstrId&gt;
+            &lt;EndToEndId&gt;{{ EndToEndId }}&lt;/EndToEndId&gt;
+        &lt;/PmtId&gt;
+        &lt;IntrBkSttlmAmt Ccy="{{ currency }}"&gt;{{ amount }}&lt;/IntrBkSttlmAmt&gt;
+        &lt;Dbtr&gt;
+            &lt;Nm&gt;{{ debtor.name }}&lt;/Nm&gt;
+            &lt;PstlAdr&gt;
+                &lt;StrtNm&gt;{{ debtor.address }}&lt;/StrtNm&gt;
+                {%- for phone in debtor.phones %}
+                &lt;Phne&gt;{{ phone }}&lt;/Phne&gt;
+                {%- endfor %}
+            &lt;/PstlAdr&gt;
+            &lt;CtctDtls&gt;
+                &lt;EmailAdr&gt;{{ debtor.email }}&lt;/EmailAdr&gt;
+            &lt;/CtctDtls&gt;
+        &lt;/Dbtr&gt;
+        &lt;Cdtr&gt;
+            &lt;Nm&gt;{{ creditor.name }}&lt;/Nm&gt;
+            &lt;PstlAdr&gt;
+                &lt;StrtNm&gt;{{ creditor.address }}&lt;/StrtNm&gt;
+                {%- for phone in creditor.phones %}
+                &lt;Phne&gt;{{ phone }}&lt;/Phne&gt;
+                {%- endfor %}
+            &lt;/PstlAdr&gt;
+            &lt;CtctDtls&gt;
+                &lt;EmailAdr&gt;{{ creditor.email }}&lt;/EmailAdr&gt;
+            &lt;/CtctDtls&gt;
+        &lt;/Cdtr&gt;
+    &lt;/CdtTrfTxInf&gt;
+&lt;/Document&gt;</t>
+  </si>
+  <si>
+    <t>pacs.008_in_cny</t>
+  </si>
+  <si>
+    <t>{
+  "transaction_id": "IN123457",
+  "amount": 1500.00,
+  "currency": "CNY",
+  "debtor": {
+    "name": "Oliver Queen",
+    "phones": [
+      "555-987-1234",
+      "555-987-1235"
+    ],
+    "email": "oliver.queen@example.com",
+    "address": "500 Green Arrow Street"
+  },
+  "creditor": {
+    "name": "Hal Jordan",
+    "phones": [
+      "555-789-1234",
+      "555-789-1235"
+    ],
+    "email": "hal.jordan@example.com",
+    "address": "3000 Coast City"
+  }
+}</t>
+  </si>
+  <si>
+    <t>pacs.008_out_cny</t>
+  </si>
+  <si>
+    <t>{
+  "InstrId": "OUT123456",
+  "EndToEndId": "E2EOUT123456",
+  "amount": 1500.00,
+  "currency": "CNY",
+  "debtor": {
+    "name": "Vick Huang",
+    "phones": [
+      "555-555-5555",
+      "555-555-5556"
+    ],
+    "email": "vick.huang@example.com",
+    "address": "600 Green Arrow Street"
+  },
+  "creditor": {
+    "name": "Jay Huang",
+    "phones": [
+      "555-666-1234",
+      "555-666-1235"
+    ],
+    "email": "jay.huang@example.com",
+    "address": "3333 Coast City"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/inbound_payment.json</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/outbound_payment.xml</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/positions2</t>
+  </si>
+  <si>
+    <t>SIT</t>
+  </si>
+  <si>
+    <t>https://vhuang2.free.beeceptor.com/api/outbound_payment.json</t>
+  </si>
+  <si>
+    <t>https://vhuang2.free.beeceptor.com/api/outbound_payment.xml</t>
+  </si>
+  <si>
+    <t>https://vhuang2.free.beeceptor.com/api/positions</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>https://vhuang1.free.beeceptor.com/api/outbound_payment.json</t>
+  </si>
+  <si>
+    <t>https://vhuang1.free.beeceptor.com/api/outbound_payment.xml</t>
+  </si>
+  <si>
+    <t>https://vhuang1.free.beeceptor.com/api/positions</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>IsRemote</t>
+  </si>
+  <si>
+    <t>RemoteURL</t>
+  </si>
+  <si>
+    <t>ChromePath</t>
+  </si>
+  <si>
+    <t>ChromedriverPath</t>
+  </si>
+  <si>
+    <t>EdgePath</t>
+  </si>
+  <si>
+    <t>EdgedriverPath</t>
+  </si>
+  <si>
+    <t>BrowserOptions</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>http://www.sg2.findhere.org:8044/wd/hub</t>
+  </si>
+  <si>
+    <t>D:\Downloads\My Files\chrome-win64\chrome.exe</t>
+  </si>
+  <si>
+    <t>D:\Downloads\My Files\chromedriver-win64\chromedriver.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe</t>
+  </si>
+  <si>
+    <t>C:\WebDrivers\msedgedriver.exe</t>
+  </si>
+  <si>
+    <t>{"no-sandbox": true, "disable-dev-shm-usage": true, "disable-gpu": true, "remote-debugging-port": 9222, "headless": true}</t>
+  </si>
+  <si>
+    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
+  </si>
+  <si>
+    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
+  </si>
+  <si>
+    <t>{"no-sandbox": true, "disable-dev-shm-usage": true, "disable-gpu": true, "remote-debugging-port": 9222}</t>
   </si>
 </sst>
 </file>
@@ -168,12 +439,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -184,6 +455,12 @@
       <sz val="10.5"/>
       <color rgb="FFECECEC"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -199,23 +476,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -226,6 +489,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -298,7 +576,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,14 +589,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -327,13 +597,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -348,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,25 +640,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,157 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +851,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,32 +918,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -663,6 +935,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -674,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -682,145 +965,157 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1212,264 +1507,264 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.2857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.2190476190476" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.2761904761905" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38.2666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.57142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5809523809524" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.8761904761905" style="1" customWidth="1"/>
-    <col min="15" max="1019" width="9.42857142857143" style="1"/>
-    <col min="1020" max="1020" width="9.42857142857143"/>
+    <col min="1" max="1" width="13.1388888888889" style="6" customWidth="1"/>
+    <col min="2" max="3" width="21.287037037037" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.7314814814815" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.71296296296296" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.2222222222222" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.2777777777778" style="6" customWidth="1"/>
+    <col min="9" max="9" width="38.2685185185185" style="6" customWidth="1"/>
+    <col min="10" max="10" width="5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="5.57407407407407" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.5833333333333" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28" style="6" customWidth="1"/>
+    <col min="14" max="14" width="26.8796296296296" style="6" customWidth="1"/>
+    <col min="15" max="1019" width="9.42592592592593" style="6"/>
+    <col min="1020" max="1020" width="9.42592592592593"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7">
         <v>200</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7">
         <v>200</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="7">
         <v>200</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="47.25" spans="1:14">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="50.4" spans="1:14">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="7">
         <v>200</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" ht="47.25" spans="1:14">
-      <c r="A6" s="3" t="s">
+    <row r="6" ht="50.4" spans="1:14">
+      <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="7">
         <v>200</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" customHeight="1"/>
+    <row r="9" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1480,14 +1775,43 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="118.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" ht="129.6" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="86.4" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1496,14 +1820,52 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="14.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="118.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" ht="269" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="269" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1512,14 +1874,337 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="118.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" ht="331.2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" ht="345.6" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="17.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="57.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://localhost:5000/api/inbound_payment.json" tooltip="http://localhost:5000/api/inbound_payment.json"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://localhost:5000/api/outbound_payment.xml" tooltip="http://localhost:5000/api/outbound_payment.xml"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://localhost:5000/api/positions2" tooltip="http://localhost:5000/api/positions2"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.json"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://vhuang2.free.beeceptor.com/api/positions" tooltip="https://vhuang2.free.beeceptor.com/api/positions"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.json"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://vhuang1.free.beeceptor.com/api/positions" tooltip="https://vhuang1.free.beeceptor.com/api/positions"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="40.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="21.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="24.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="48.5555555555556" customWidth="1"/>
+    <col min="10" max="16384" width="9.11111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="55.2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" ht="55.2" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="500" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>TCID</t>
   </si>
@@ -40,13 +40,13 @@
     <t>Headers</t>
   </si>
   <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Defaults</t>
-  </si>
-  <si>
-    <t>Body Modifications</t>
+    <t>Body Template</t>
+  </si>
+  <si>
+    <t>Body Default</t>
+  </si>
+  <si>
+    <t>Body User-defined Fields</t>
   </si>
   <si>
     <t>Run</t>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>j_pacs.008_in</t>
-  </si>
-  <si>
-    <t>j_pacs.008_in_cny</t>
   </si>
   <si>
     <t xml:space="preserve">{"amount": 100} </t>
@@ -135,9 +132,6 @@
   </si>
   <si>
     <t>x_pacs.008_out</t>
-  </si>
-  <si>
-    <t>x_pacs.008_out_cny</t>
   </si>
   <si>
     <t xml:space="preserve">{"amount": ${TC001.$.amount}} </t>
@@ -194,9 +188,6 @@
   </si>
   <si>
     <t>Format</t>
-  </si>
-  <si>
-    <t>pacs.008_in</t>
   </si>
   <si>
     <t>json</t>
@@ -229,9 +220,6 @@
     "address": "{{debtor.address}}"
   }
 }</t>
-  </si>
-  <si>
-    <t>pacs.008_out</t>
   </si>
   <si>
     <t>xml</t>
@@ -272,9 +260,6 @@
 &lt;/Document&gt;</t>
   </si>
   <si>
-    <t>pacs.008_in_cny</t>
-  </si>
-  <si>
     <t>{
   "transaction_id": "IN123457",
   "amount": 1500.00,
@@ -298,9 +283,6 @@
     "address": "3000 Coast City"
   }
 }</t>
-  </si>
-  <si>
-    <t>pacs.008_out_cny</t>
   </si>
   <si>
     <t>{
@@ -422,7 +404,13 @@
     <t>C:\WebDrivers\msedgedriver.exe</t>
   </si>
   <si>
-    <t>{"no-sandbox": true, "disable-dev-shm-usage": true, "disable-gpu": true, "remote-debugging-port": 9222, "headless": true}</t>
+    <t>{
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222,
+  "headless": true
+}</t>
   </si>
   <si>
     <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
@@ -431,7 +419,12 @@
     <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
   </si>
   <si>
-    <t>{"no-sandbox": true, "disable-dev-shm-usage": true, "disable-gpu": true, "remote-debugging-port": 9222}</t>
+    <t>{
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222
+}</t>
   </si>
 </sst>
 </file>
@@ -440,11 +433,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -459,14 +452,29 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FF222222"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -476,9 +484,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -496,6 +521,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -504,93 +591,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,30 +611,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,7 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7FA"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,55 +639,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,121 +789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,30 +837,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -911,6 +877,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -919,27 +911,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,165 +938,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1507,27 +1482,27 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1388888888889" style="6" customWidth="1"/>
-    <col min="2" max="3" width="21.287037037037" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.7314814814815" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.71296296296296" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.2222222222222" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.2777777777778" style="6" customWidth="1"/>
-    <col min="9" max="9" width="38.2685185185185" style="6" customWidth="1"/>
-    <col min="10" max="10" width="5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="5.57407407407407" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.5833333333333" style="6" customWidth="1"/>
-    <col min="13" max="13" width="28" style="6" customWidth="1"/>
-    <col min="14" max="14" width="26.8796296296296" style="6" customWidth="1"/>
-    <col min="15" max="1019" width="9.42592592592593" style="6"/>
-    <col min="1020" max="1020" width="9.42592592592593"/>
+    <col min="1" max="1" width="13.1428571428571" style="4" customWidth="1"/>
+    <col min="2" max="3" width="21.2857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.7333333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.2190476190476" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.2761904761905" style="4" customWidth="1"/>
+    <col min="9" max="9" width="38.2666666666667" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.57142857142857" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.5809523809524" style="4" customWidth="1"/>
+    <col min="13" max="13" width="28" style="4" customWidth="1"/>
+    <col min="14" max="14" width="26.8761904761905" style="4" customWidth="1"/>
+    <col min="15" max="1019" width="9.42857142857143" style="4"/>
+    <col min="1020" max="1020" width="9.42857142857143"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
@@ -1575,196 +1550,196 @@
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
         <v>200</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
         <v>200</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:14">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="5">
+        <v>200</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="7">
+      <c r="N4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="47.25" spans="1:14">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5">
         <v>200</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="50.4" spans="1:14">
-      <c r="A5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="7" t="s">
+    </row>
+    <row r="6" ht="47.25" spans="1:14">
+      <c r="A6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="L6" s="5">
         <v>200</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" ht="50.4" spans="1:14">
-      <c r="A6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="7">
-        <v>200</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1"/>
+    </row>
+    <row r="9" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1778,37 +1753,37 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="118.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="12.7809523809524" customWidth="1"/>
+    <col min="2" max="2" width="118.780952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" ht="150" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" ht="105" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="2" ht="129.6" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" ht="86.4" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1823,46 +1798,46 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="118.777777777778" customWidth="1"/>
+    <col min="1" max="2" width="14.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="118.780952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:3">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" ht="269" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" ht="269" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="3" ht="269" customHeight="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" ht="269" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1876,38 +1851,38 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="118.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="17.552380952381" customWidth="1"/>
+    <col min="2" max="2" width="118.780952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" ht="331.2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" ht="345.6" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" ht="345" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="360" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1922,155 +1897,155 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="17.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="57.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="17.552380952381" customWidth="1"/>
+    <col min="2" max="2" width="20.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="17.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="57.1142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:4">
+    <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2095,109 +2070,109 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="13.1142857142857" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="40.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="40.447619047619" customWidth="1"/>
     <col min="5" max="5" width="21.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="24.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="18.552380952381" customWidth="1"/>
+    <col min="7" max="7" width="24.552380952381" customWidth="1"/>
     <col min="8" max="8" width="15.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="48.5555555555556" customWidth="1"/>
-    <col min="10" max="16384" width="9.11111111111111" customWidth="1"/>
+    <col min="9" max="9" width="48.552380952381" customWidth="1"/>
+    <col min="10" max="16384" width="9.11428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:9">
+    <row r="1" ht="15.75" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" ht="105" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" ht="55.2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" ht="90" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" ht="55.2" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
-    <sheet name="Headers" sheetId="2" r:id="rId2"/>
-    <sheet name="BodyTemplates" sheetId="3" r:id="rId3"/>
-    <sheet name="BodyDefaults" sheetId="4" r:id="rId4"/>
-    <sheet name="Endpoints" sheetId="5" r:id="rId5"/>
+    <sheet name="Endpoints" sheetId="5" r:id="rId2"/>
+    <sheet name="Headers" sheetId="2" r:id="rId3"/>
+    <sheet name="BodyTemplates" sheetId="3" r:id="rId4"/>
+    <sheet name="BodyDefaults" sheetId="4" r:id="rId5"/>
     <sheet name="WebEnvironments " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -159,29 +159,76 @@
     <t>$.amount</t>
   </si>
   <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/inbound_payment.json</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/outbound_payment.xml</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/positions2</t>
+  </si>
+  <si>
+    <t>SIT</t>
+  </si>
+  <si>
+    <t>https://vhuang2.free.beeceptor.com/api/outbound_payment.json</t>
+  </si>
+  <si>
+    <t>https://vhuang2.free.beeceptor.com/api/outbound_payment.xml</t>
+  </si>
+  <si>
+    <t>https://vhuang2.free.beeceptor.com/api/positions</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>https://vhuang1.free.beeceptor.com/api/outbound_payment.json</t>
+  </si>
+  <si>
+    <t>https://vhuang1.free.beeceptor.com/api/outbound_payment.xml</t>
+  </si>
+  <si>
+    <t>https://vhuang1.free.beeceptor.com/api/positions</t>
+  </si>
+  <si>
     <t>HeaderName</t>
   </si>
   <si>
     <t>Content</t>
   </si>
   <si>
-    <t>{
-  "Content-Type": "application/json",
-  "accept": "application/json",
-  "Authorization": "token={{uuid4}}",
-  "timestamp": "{{timestamp}}",
-  "timestamp2": "{{formated_timestamp}}",
-  "bic": "{{bic}}",
-  "user_agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36"
-}</t>
-  </si>
-  <si>
-    <t>{
-  "Content-Type": "application/json",
-  "accept": "application/json",
-  "Authorization": "{{uuid4}}",
-  "user_agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36"
-}</t>
+    <t>Content-Type: application/json
+accept: application/json
+Authorization: token="{{uuid4}}"
+timestamp: "{{timestamp}}"
+timestamp2: "{{formated_timestamp}}"
+bic: "{{bic}}"
+user_agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
+  </si>
+  <si>
+    <t>Content-Type: application/json
+accept: application/json
+Authorization: "{{uuid4}}"
+user_agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
   </si>
   <si>
     <t>TemplateName</t>
@@ -309,57 +356,6 @@
     "address": "3333 Coast City"
   }
 }</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>http://localhost:5000/api/inbound_payment.json</t>
-  </si>
-  <si>
-    <t>http://localhost:5000/api/outbound_payment.xml</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>http://localhost:5000/api/positions2</t>
-  </si>
-  <si>
-    <t>SIT</t>
-  </si>
-  <si>
-    <t>https://vhuang2.free.beeceptor.com/api/outbound_payment.json</t>
-  </si>
-  <si>
-    <t>https://vhuang2.free.beeceptor.com/api/outbound_payment.xml</t>
-  </si>
-  <si>
-    <t>https://vhuang2.free.beeceptor.com/api/positions</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>https://vhuang1.free.beeceptor.com/api/outbound_payment.json</t>
-  </si>
-  <si>
-    <t>https://vhuang1.free.beeceptor.com/api/outbound_payment.xml</t>
-  </si>
-  <si>
-    <t>https://vhuang1.free.beeceptor.com/api/positions</t>
   </si>
   <si>
     <t>Browser</t>
@@ -1482,8 +1478,8 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1750,10 +1746,184 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.552380952381" customWidth="1"/>
+    <col min="2" max="2" width="20.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="17.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="57.1142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://localhost:5000/api/inbound_payment.json" tooltip="http://localhost:5000/api/inbound_payment.json"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://localhost:5000/api/outbound_payment.xml" tooltip="http://localhost:5000/api/outbound_payment.xml"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://localhost:5000/api/positions2" tooltip="http://localhost:5000/api/positions2"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.json"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://vhuang2.free.beeceptor.com/api/positions" tooltip="https://vhuang2.free.beeceptor.com/api/positions"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.json"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://vhuang1.free.beeceptor.com/api/positions" tooltip="https://vhuang1.free.beeceptor.com/api/positions"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1764,26 +1934,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" ht="150" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="105" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" ht="105" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C3"/>
@@ -1809,13 +1979,13 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="269" customHeight="1" spans="1:3">
@@ -1823,10 +1993,10 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="269" customHeight="1" spans="1:3">
@@ -1834,10 +2004,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1846,12 +2016,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1866,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="345" spans="1:2">
@@ -1874,7 +2044,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="360" spans="1:2">
@@ -1882,184 +2052,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.552380952381" customWidth="1"/>
-    <col min="2" max="2" width="20.7809523809524" customWidth="1"/>
-    <col min="3" max="3" width="17.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="57.1142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://localhost:5000/api/inbound_payment.json" tooltip="http://localhost:5000/api/inbound_payment.json"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://localhost:5000/api/outbound_payment.xml" tooltip="http://localhost:5000/api/outbound_payment.xml"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://localhost:5000/api/positions2" tooltip="http://localhost:5000/api/positions2"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.json"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://vhuang2.free.beeceptor.com/api/positions" tooltip="https://vhuang2.free.beeceptor.com/api/positions"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.json"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://vhuang1.free.beeceptor.com/api/positions" tooltip="https://vhuang1.free.beeceptor.com/api/positions"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2090,7 +2086,7 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>73</v>
@@ -2119,7 +2115,7 @@
     </row>
     <row r="2" ht="105" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>81</v>
@@ -2148,7 +2144,7 @@
     </row>
     <row r="3" ht="90" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>81</v>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,13 @@
     <sheet name="Headers" sheetId="2" r:id="rId3"/>
     <sheet name="BodyTemplates" sheetId="3" r:id="rId4"/>
     <sheet name="BodyDefaults" sheetId="4" r:id="rId5"/>
-    <sheet name="WebEnvironments " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -208,6 +207,9 @@
   </si>
   <si>
     <t>https://vhuang1.free.beeceptor.com/api/positions</t>
+  </si>
+  <si>
+    <t>WebEnvironments</t>
   </si>
   <si>
     <t>HeaderName</t>
@@ -357,81 +359,16 @@
   }
 }</t>
   </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>IsRemote</t>
-  </si>
-  <si>
-    <t>RemoteURL</t>
-  </si>
-  <si>
-    <t>ChromePath</t>
-  </si>
-  <si>
-    <t>ChromedriverPath</t>
-  </si>
-  <si>
-    <t>EdgePath</t>
-  </si>
-  <si>
-    <t>EdgedriverPath</t>
-  </si>
-  <si>
-    <t>BrowserOptions</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>http://www.sg2.findhere.org:8044/wd/hub</t>
-  </si>
-  <si>
-    <t>D:\Downloads\My Files\chrome-win64\chrome.exe</t>
-  </si>
-  <si>
-    <t>D:\Downloads\My Files\chromedriver-win64\chromedriver.exe</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe</t>
-  </si>
-  <si>
-    <t>C:\WebDrivers\msedgedriver.exe</t>
-  </si>
-  <si>
-    <t>{
-  "no-sandbox": true,
-  "disable-dev-shm-usage": true,
-  "disable-gpu": true,
-  "remote-debugging-port": 9222,
-  "headless": true
-}</t>
-  </si>
-  <si>
-    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
-  </si>
-  <si>
-    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
-  </si>
-  <si>
-    <t>{
-  "no-sandbox": true,
-  "disable-dev-shm-usage": true,
-  "disable-gpu": true,
-  "remote-debugging-port": 9222
-}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -449,6 +386,33 @@
     <font>
       <sz val="10.5"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -460,9 +424,103 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -474,128 +532,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,19 +560,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,31 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,121 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,30 +770,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -867,17 +780,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,6 +826,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -934,138 +871,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1746,10 +1683,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1898,6 +1835,11 @@
       </c>
       <c r="D10" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1920,13 +1862,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.7809523809524" customWidth="1"/>
     <col min="2" max="2" width="118.780952380952" customWidth="1"/>
@@ -1934,10 +1876,10 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:2">
@@ -1945,7 +1887,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
@@ -1953,7 +1895,12 @@
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1965,13 +1912,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="14.7809523809524" customWidth="1"/>
     <col min="3" max="3" width="118.780952380952" customWidth="1"/>
@@ -1979,13 +1926,13 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="269" customHeight="1" spans="1:3">
@@ -1993,10 +1940,10 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="269" customHeight="1" spans="1:3">
@@ -2004,10 +1951,15 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2019,13 +1971,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.552380952381" customWidth="1"/>
     <col min="2" max="2" width="118.780952380952" customWidth="1"/>
@@ -2036,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="345" spans="1:2">
@@ -2044,7 +1996,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="360" spans="1:2">
@@ -2052,131 +2004,16 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" width="13.1142857142857" customWidth="1"/>
-    <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="40.447619047619" customWidth="1"/>
-    <col min="5" max="5" width="21.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.552380952381" customWidth="1"/>
-    <col min="7" max="7" width="24.552380952381" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="48.552380952381" customWidth="1"/>
-    <col min="10" max="16384" width="9.11428571428571" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" ht="105" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" ht="90" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
   <si>
     <t>Content-Type: application/json
 accept: application/json
-Authorization: token="{{uuid4}}"
+Authorization: "token={{uuid4}}"
 timestamp: "{{timestamp}}"
 timestamp2: "{{formated_timestamp}}"
 bic: "{{bic}}"
@@ -366,9 +366,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -389,8 +389,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +451,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,49 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -462,31 +486,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,14 +510,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -517,15 +518,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,6 +537,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -560,37 +560,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,37 +650,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,37 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,54 +735,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,6 +765,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,41 +838,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -871,138 +871,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1685,7 +1685,7 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1865,7 +1865,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1914,7 +1914,7 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1973,7 +1973,7 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -365,9 +365,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -387,18 +387,6 @@
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -410,14 +398,140 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,120 +544,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -560,19 +560,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,37 +692,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,109 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,16 +781,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,7 +799,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,6 +815,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,31 +862,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,138 +871,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1415,8 +1415,8 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1864,7 +1864,7 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A3" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1935,7 +1935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" ht="269" customHeight="1" spans="1:3">
+    <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" ht="269" customHeight="1" spans="1:3">
+    <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1991,7 +1991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" ht="345" spans="1:2">
+    <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" ht="360" spans="1:2">
+    <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -365,10 +365,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -387,6 +387,102 @@
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -397,23 +493,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -424,41 +524,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,82 +544,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -560,13 +560,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,37 +668,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,127 +728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,11 +771,74 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,71 +861,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,138 +871,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,7 +1416,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1657,7 +1657,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>28</v>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>https://vhuang1.free.beeceptor.com/api/positions</t>
-  </si>
-  <si>
-    <t>WebEnvironments</t>
   </si>
   <si>
     <t>HeaderName</t>
@@ -365,10 +362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -389,9 +386,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -401,8 +401,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,9 +429,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,51 +489,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -487,32 +499,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,18 +521,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -560,187 +557,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,11 +766,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,32 +829,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -860,9 +855,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,138 +868,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,7 +1413,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1486,7 +1483,9 @@
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
@@ -1514,7 +1513,9 @@
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -1683,10 +1684,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1835,11 +1836,6 @@
       </c>
       <c r="D10" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1862,13 +1858,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.7809523809524" customWidth="1"/>
     <col min="2" max="2" width="118.780952380952" customWidth="1"/>
@@ -1876,10 +1872,10 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:2">
@@ -1887,7 +1883,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
@@ -1895,12 +1891,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1912,13 +1903,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A2:$XFD3"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="14.7809523809524" customWidth="1"/>
     <col min="3" max="3" width="118.780952380952" customWidth="1"/>
@@ -1926,13 +1917,13 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
@@ -1940,10 +1931,10 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
@@ -1951,15 +1942,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1971,13 +1957,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.552380952381" customWidth="1"/>
     <col min="2" max="2" width="118.780952380952" customWidth="1"/>
@@ -1988,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
@@ -1996,7 +1982,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
@@ -2004,12 +1990,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602"/>
+    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Save Fields</t>
+  </si>
+  <si>
+    <t>Wait</t>
   </si>
   <si>
     <t>Position</t>
@@ -386,6 +389,110 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -395,56 +502,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -453,55 +510,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,7 +525,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,21 +544,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -557,55 +560,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,31 +716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,91 +728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,16 +770,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,15 +789,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,26 +808,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,11 +860,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,142 +871,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,11 +1020,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1410,32 +1417,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="4" customWidth="1"/>
-    <col min="2" max="3" width="21.2857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.7333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1388888888889" style="4" customWidth="1"/>
+    <col min="2" max="3" width="21.287037037037" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.7314814814815" style="4" customWidth="1"/>
     <col min="5" max="5" width="20" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.2190476190476" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.2761904761905" style="4" customWidth="1"/>
-    <col min="9" max="9" width="38.2666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.71296296296296" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.2222222222222" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.2777777777778" style="4" customWidth="1"/>
+    <col min="9" max="9" width="38.2685185185185" style="4" customWidth="1"/>
     <col min="10" max="10" width="5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.57142857142857" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.5809523809524" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.57407407407407" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.5833333333333" style="4" customWidth="1"/>
     <col min="13" max="13" width="28" style="4" customWidth="1"/>
-    <col min="14" max="14" width="26.8761904761905" style="4" customWidth="1"/>
-    <col min="15" max="1019" width="9.42857142857143" style="4"/>
-    <col min="1020" max="1020" width="9.42857142857143"/>
+    <col min="14" max="14" width="26.8796296296296" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5"/>
+    <col min="16" max="1019" width="9.42592592592593" style="4"/>
+    <col min="1020" max="1020" width="9.42592592592593"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:14">
+    <row r="1" ht="15.75" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,202 +1486,212 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A2" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:15">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6">
         <v>200</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:15">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A3" s="5" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6">
+        <v>200</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5" t="s">
+      <c r="N3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" ht="31.5" customHeight="1" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5">
+      <c r="G4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="6">
         <v>200</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:14">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="M4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" ht="50.4" spans="1:15">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="6">
+        <v>200</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="50.4" spans="1:15">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="H6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="J6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="5">
+      <c r="K6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="6">
         <v>200</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="47.25" spans="1:14">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="5">
-        <v>200</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" ht="47.25" spans="1:14">
-      <c r="A6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="5">
-        <v>200</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="M6" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" customHeight="1"/>
+      <c r="N6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="9" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1690,152 +1708,152 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.552380952381" customWidth="1"/>
-    <col min="2" max="2" width="20.7809523809524" customWidth="1"/>
-    <col min="3" max="3" width="17.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="57.1142857142857" customWidth="1"/>
+    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="17.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="57.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
+    <row r="1" ht="16.8" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1864,34 +1882,34 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.7809523809524" customWidth="1"/>
-    <col min="2" max="2" width="118.780952380952" customWidth="1"/>
+    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="118.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="105" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="100.8" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" ht="60" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1909,43 +1927,43 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.7809523809524" customWidth="1"/>
-    <col min="3" max="3" width="118.780952380952" customWidth="1"/>
+    <col min="1" max="2" width="14.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="118.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
+    <row r="1" ht="16.8" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1963,34 +1981,34 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.552380952381" customWidth="1"/>
-    <col min="2" max="2" width="118.780952380952" customWidth="1"/>
+    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="118.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="602"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>Body Default</t>
   </si>
   <si>
-    <t>Body User-defined Fields</t>
+    <t>Body Override</t>
   </si>
   <si>
     <t>Run</t>
@@ -366,8 +366,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -394,6 +394,11 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -411,15 +416,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,8 +440,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,37 +493,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -493,7 +509,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -503,14 +518,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,13 +539,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -560,31 +560,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,19 +716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,127 +728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,16 +770,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,6 +810,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -817,28 +843,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,152 +866,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,28 +1419,28 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1388888888889" style="4" customWidth="1"/>
-    <col min="2" max="3" width="21.287037037037" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.7314814814815" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1428571428571" style="4" customWidth="1"/>
+    <col min="2" max="3" width="21.2857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.7333333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="20" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.71296296296296" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.2222222222222" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.2777777777778" style="4" customWidth="1"/>
-    <col min="9" max="9" width="38.2685185185185" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.2190476190476" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.2761904761905" style="4" customWidth="1"/>
+    <col min="9" max="9" width="38.2666666666667" style="4" customWidth="1"/>
     <col min="10" max="10" width="5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.57407407407407" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.5833333333333" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.57142857142857" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.5809523809524" style="4" customWidth="1"/>
     <col min="13" max="13" width="28" style="4" customWidth="1"/>
-    <col min="14" max="14" width="26.8796296296296" style="4" customWidth="1"/>
+    <col min="14" max="14" width="26.8761904761905" style="4" customWidth="1"/>
     <col min="15" max="15" width="9" style="5"/>
-    <col min="16" max="1019" width="9.42592592592593" style="4"/>
-    <col min="1020" max="1020" width="9.42592592592593"/>
+    <col min="16" max="1019" width="9.42857142857143" style="4"/>
+    <col min="1020" max="1020" width="9.42857142857143"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:15">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" ht="50.4" spans="1:15">
+    <row r="5" ht="47.25" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="50.4" spans="1:15">
+    <row r="6" ht="47.25" spans="1:15">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="O6" s="8"/>
     </row>
-    <row r="9" ht="15" customHeight="1"/>
+    <row r="9" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1708,15 +1708,15 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="17.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="57.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="17.552380952381" customWidth="1"/>
+    <col min="2" max="2" width="20.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="17.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="57.1142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:4">
+    <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,13 +1882,13 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="118.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="12.7809523809524" customWidth="1"/>
+    <col min="2" max="2" width="118.780952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" ht="100.8" spans="1:2">
+    <row r="2" ht="105" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" ht="57.6" spans="1:2">
+    <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -1927,13 +1927,13 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="118.777777777778" customWidth="1"/>
+    <col min="1" max="2" width="14.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="118.780952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:3">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1977,17 +1977,17 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="118.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="17.552380952381" customWidth="1"/>
+    <col min="2" max="2" width="118.780952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -224,6 +224,7 @@
 timestamp: "{{timestamp}}"
 timestamp2: "{{formated_timestamp}}"
 bic: "{{bic}}"
+MyToken: "{{MyToken}}"
 user_agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
   </si>
   <si>
@@ -365,10 +366,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -387,6 +388,13 @@
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -399,13 +407,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -416,6 +417,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -424,30 +531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,93 +540,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -560,187 +561,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,30 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -810,10 +787,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -843,11 +818,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,143 +847,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,8 +1420,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1705,7 +1706,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1878,8 +1879,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1896,7 +1897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" ht="105" spans="1:2">
+    <row r="2" ht="120" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1924,7 +1925,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1978,7 +1979,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,8 @@
   </si>
   <si>
     <t>$.amount=100.0
-Position.$[3].balance=+100</t>
+Position.$[3].balance=+100
+@Position.$[3].currency=CNY</t>
   </si>
   <si>
     <t>$.amount</t>
@@ -366,9 +367,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -388,6 +389,34 @@
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -395,18 +424,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -434,6 +451,28 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -441,18 +480,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,36 +497,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -502,22 +504,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,6 +525,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,7 +541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,187 +562,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,6 +767,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,15 +834,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -833,17 +849,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,152 +868,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1420,8 +1421,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1879,7 +1880,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -18,6 +18,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>vhuang1</author>
+  </authors>
+  <commentList>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>vhuang1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+test</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
@@ -156,7 +188,8 @@
   <si>
     <t>$.amount=100.0
 Position.$[3].balance=+100
-@Position.$[3].currency=CNY</t>
+Position.postcheck.$[3].currency=CNY
+Position.precheck.$[3].currency=CNY</t>
   </si>
   <si>
     <t>$.amount</t>
@@ -367,12 +400,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -388,6 +421,25 @@
     <font>
       <sz val="10.5"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -399,9 +451,117 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -412,111 +572,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -525,26 +580,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -562,13 +606,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,19 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,145 +774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,24 +817,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,17 +880,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,13 +898,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,138 +917,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1421,8 +1465,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1648,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="47.25" spans="1:15">
+    <row r="6" ht="94.5" spans="1:15">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1698,6 +1742,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -137,9 +137,6 @@
     <t xml:space="preserve">{"amount": 100} </t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>tag1</t>
   </si>
   <si>
@@ -186,10 +183,14 @@
 [TestTeardown]PRE</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>$.amount=100.0
 Position.$[3].balance=+100
 Position.postcheck.$[3].currency=CNY
-Position.precheck.$[3].currency=CNY</t>
+Position.precheck.$[3].currency=CNY
+DB.users.email [name=Alice Brown;age=27]=alice@example.com</t>
   </si>
   <si>
     <t>$.amount</t>
@@ -400,10 +401,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -422,6 +423,34 @@
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -431,16 +460,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -451,9 +544,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,103 +559,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -572,7 +567,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -580,6 +574,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -606,25 +607,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,157 +733,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,10 +818,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -856,15 +855,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -891,9 +881,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,143 +904,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1465,8 +1466,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1629,72 +1630,72 @@
         <v>27</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="L4" s="6">
         <v>200</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="O4" s="8"/>
     </row>
     <row r="5" ht="47.25" spans="1:15">
       <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="J5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="L5" s="6">
         <v>200</v>
       </c>
       <c r="M5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="O5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="94.5" spans="1:15">
+    <row r="6" ht="141.75" spans="1:15">
       <c r="A6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>23</v>
@@ -1703,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -1721,10 +1722,10 @@
         <v>27</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="L6" s="6">
         <v>200</v>
@@ -1796,7 +1797,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>49</v>
@@ -1838,7 +1839,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>49</v>
@@ -1880,7 +1881,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>49</v>
@@ -1953,7 +1954,7 @@
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>65</v>
@@ -2004,7 +2005,7 @@
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>70</v>
@@ -2052,7 +2053,7 @@
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>73</v>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -24,7 +24,7 @@
     <author>vhuang1</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,14 +51,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Descriptions</t>
   </si>
   <si>
@@ -119,7 +116,7 @@
     <t>$[2].balance</t>
   </si>
   <si>
-    <t>TC001</t>
+    <t>IB_pacs008_1</t>
   </si>
   <si>
     <t>pacs008 in cny 100</t>
@@ -147,7 +144,7 @@
 $.currency</t>
   </si>
   <si>
-    <t>TC002</t>
+    <t>OB_pacs008_1</t>
   </si>
   <si>
     <t>pacs008 out cny 100</t>
@@ -175,7 +172,7 @@
     <t>$.result.amount</t>
   </si>
   <si>
-    <t>TC003</t>
+    <t>IB_pacs008_2</t>
   </si>
   <si>
     <t>[Checkwith]Position
@@ -345,6 +342,9 @@
 &lt;/Document&gt;</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>{
   "transaction_id": "IN123457",
   "amount": 1500.00,
@@ -401,10 +401,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -425,9 +425,114 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -438,28 +543,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -468,9 +551,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,89 +574,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -574,13 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -607,187 +607,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,9 +818,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,52 +881,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,138 +918,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,33 +1464,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M10:M11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="4" customWidth="1"/>
-    <col min="2" max="3" width="21.2857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.7333333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.2190476190476" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.2761904761905" style="4" customWidth="1"/>
-    <col min="9" max="9" width="38.2666666666667" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.57142857142857" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.5809523809524" style="4" customWidth="1"/>
-    <col min="13" max="13" width="28" style="4" customWidth="1"/>
-    <col min="14" max="14" width="26.8761904761905" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9" style="5"/>
-    <col min="16" max="1019" width="9.42857142857143" style="4"/>
-    <col min="1020" max="1020" width="9.42857142857143"/>
+    <col min="1" max="1" width="15" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.7333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.71428571428571" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.2190476190476" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.2761904761905" style="4" customWidth="1"/>
+    <col min="8" max="8" width="38.2666666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.57142857142857" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.5809523809524" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.8761904761905" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9" style="5"/>
+    <col min="15" max="1018" width="9.42857142857143" style="4"/>
+    <col min="1019" max="1019" width="9.42857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:15">
+    <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1533,80 +1533,71 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:14">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
+        <v>200</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6">
-        <v>200</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:14">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:15">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6">
+        <v>200</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6">
-        <v>200</v>
-      </c>
       <c r="M3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" ht="31.5" customHeight="1" spans="1:14">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:15">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>23</v>
@@ -1615,43 +1606,40 @@
         <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="6">
+        <v>200</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="L4" s="6">
-        <v>200</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" ht="47.25" spans="1:14">
+      <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" ht="47.25" spans="1:15">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>32</v>
@@ -1666,77 +1654,71 @@
         <v>35</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="6">
+        <v>200</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="6">
-        <v>200</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="141.75" spans="1:14">
+      <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="141.75" spans="1:15">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6">
+        <v>200</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="6">
-        <v>200</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="9" customHeight="1"/>
   </sheetData>
@@ -1766,142 +1748,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1938,26 +1920,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" ht="120" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1983,35 +1965,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2037,15 +2019,15 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>72</v>
@@ -2053,7 +2035,7 @@
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>73</v>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -53,6 +53,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
+    <t>Run</t>
+  </si>
+  <si>
     <t>TCID</t>
   </si>
   <si>
@@ -77,9 +80,6 @@
     <t>Body Override</t>
   </si>
   <si>
-    <t>Run</t>
-  </si>
-  <si>
     <t>Tags</t>
   </si>
   <si>
@@ -95,6 +95,9 @@
     <t>Wait</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>$[2].balance=50000.0</t>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>$.result.amount</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>IB_pacs008_2</t>
@@ -178,16 +181,14 @@
     <t>[Checkwith]Position
 [TestSetup]PRE
 [TestTeardown]PRE</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>$.amount=100.0
 Position.$[3].balance=+100
 Position.postcheck.$[3].currency=CNY
 Position.precheck.$[3].currency=CNY
-DB.users.email [name=Alice Brown;age=27]=alice@example.com</t>
+db_name1.users.email [name=Alice Brown;age=27]=alice@example.com
+db_name2.users.email [name=Alice Brown;age=27]=alice@example.com</t>
   </si>
   <si>
     <t>$.amount</t>
@@ -401,10 +402,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -423,6 +424,13 @@
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -433,9 +441,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -445,8 +456,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,8 +484,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,112 +582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -607,115 +608,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,67 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,13 +817,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,21 +880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -907,9 +906,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,138 +919,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1467,23 +1468,23 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L9" sqref="L9:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.7333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.71428571428571" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.2190476190476" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.2761904761905" style="4" customWidth="1"/>
-    <col min="8" max="8" width="38.2666666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.2857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.7333333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.2190476190476" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.2761904761905" style="4" customWidth="1"/>
+    <col min="9" max="9" width="38.2666666666667" style="4" customWidth="1"/>
     <col min="10" max="10" width="5.57142857142857" style="4" customWidth="1"/>
     <col min="11" max="11" width="10.5809523809524" style="4" customWidth="1"/>
-    <col min="12" max="12" width="28" style="4" customWidth="1"/>
+    <col min="12" max="12" width="34.5714285714286" style="4" customWidth="1"/>
     <col min="13" max="13" width="26.8761904761905" style="4" customWidth="1"/>
     <col min="14" max="14" width="9" style="5"/>
     <col min="15" max="1018" width="9.42857142857143" style="4"/>
@@ -1538,20 +1539,20 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6">
         <v>200</v>
@@ -1564,22 +1565,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6">
         <v>200</v>
@@ -1594,31 +1595,31 @@
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>27</v>
@@ -1634,33 +1635,33 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" ht="47.25" spans="1:14">
+    <row r="5" ht="31.5" spans="1:14">
       <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>27</v>
@@ -1678,33 +1679,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="141.75" spans="1:14">
+    <row r="6" ht="126" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>27</v>
@@ -1751,7 +1752,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>45</v>
@@ -1793,7 +1794,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -1835,7 +1836,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>51</v>
@@ -1877,7 +1878,7 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -1928,7 +1929,7 @@
     </row>
     <row r="2" ht="120" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>63</v>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -188,7 +188,7 @@
 Position.postcheck.$[3].currency=CNY
 Position.precheck.$[3].currency=CNY
 db_name1.users.email [name=Alice Brown;age=27]=alice@example.com
-db_name2.users.email [name=Alice Brown;age=27]=alice@example.com</t>
+db_name2.users.email [name=Alice Brown;age=27][OrderBy=id DESC]=alice@example.com</t>
   </si>
   <si>
     <t>$.amount</t>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L12"/>
+      <selection activeCell="L15" sqref="L14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="126" spans="1:14">
+    <row r="6" ht="141.75" spans="1:14">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>Run</t>
   </si>
@@ -92,6 +92,9 @@
     <t>Save Fields</t>
   </si>
   <si>
+    <t>Variable Transform</t>
+  </si>
+  <si>
     <t>Wait</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
   </si>
   <si>
     <t>$[2].balance</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>IB_pacs008_1</t>
@@ -172,14 +178,11 @@
     <t>$.result.amount</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>IB_pacs008_2</t>
   </si>
   <si>
-    <t>[Checkwith]Position
-[TestSetup]PRE
+    <t>[TestSetup]PRE
+[Checkwith]Position
 [TestTeardown]PRE</t>
   </si>
   <si>
@@ -192,6 +195,11 @@
   </si>
   <si>
     <t>$.amount</t>
+  </si>
+  <si>
+    <t>to_lower(${IB_pacs008_1.$.currency},IB_pacs008_1.$.currency)
+to_upper(${IB_pacs008_1.$.currency})
+to_upper({{msg_id}})</t>
   </si>
   <si>
     <t>Environment</t>
@@ -426,13 +434,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -441,6 +442,131 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -449,131 +575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +583,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -608,187 +616,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,26 +825,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,7 +868,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,22 +892,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,138 +927,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1465,10 +1473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L14:L15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1476,7 +1484,7 @@
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.2857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.7333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.7142857142857" style="4" customWidth="1"/>
     <col min="5" max="5" width="20" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.71428571428571" style="4" customWidth="1"/>
     <col min="7" max="7" width="17.2190476190476" style="4" customWidth="1"/>
@@ -1486,12 +1494,13 @@
     <col min="11" max="11" width="10.5809523809524" style="4" customWidth="1"/>
     <col min="12" max="12" width="34.5714285714286" style="4" customWidth="1"/>
     <col min="13" max="13" width="26.8761904761905" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="5"/>
-    <col min="15" max="1018" width="9.42857142857143" style="4"/>
+    <col min="14" max="14" width="55.8571428571429" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5"/>
+    <col min="16" max="1018" width="9.42857142857143" style="4"/>
     <col min="1019" max="1019" width="9.42857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:14">
+    <row r="1" ht="15.75" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,21 +1543,24 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1558,25 +1570,26 @@
         <v>200</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:14">
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1586,140 +1599,146 @@
         <v>200</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" ht="31.5" customHeight="1" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:14">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="6">
         <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" ht="31.5" spans="1:15">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" ht="31.5" spans="1:14">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="K5" s="6">
         <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="8">
+        <v>40</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="141.75" spans="1:14">
+    <row r="6" ht="141.75" spans="1:15">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="6">
         <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="8"/>
     </row>
     <row r="9" customHeight="1"/>
   </sheetData>
@@ -1749,142 +1768,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1921,26 +1940,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" ht="120" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1966,35 +1985,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2020,26 +2039,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -168,10 +168,10 @@
     <t>x_pacs.008_out</t>
   </si>
   <si>
-    <t xml:space="preserve">{"amount": ${TC001.$.amount}} </t>
-  </si>
-  <si>
-    <t>$.result.amount=${TC001.$.amount}
+    <t xml:space="preserve">{"amount": ${IB_pacs008_1.$.amount}} </t>
+  </si>
+  <si>
+    <t>$.result.amount=${IB_pacs008_1.$.amount}
 Position.$[3].balance=-100</t>
   </si>
   <si>
@@ -410,10 +410,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -432,6 +432,49 @@
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -442,9 +485,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -455,71 +531,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,21 +548,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -555,6 +556,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,16 +583,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,19 +616,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,13 +664,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,85 +694,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,55 +778,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,11 +825,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,26 +866,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,7 +894,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,11 +916,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -935,130 +935,130 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1475,8 +1475,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1650,9 +1650,9 @@
       <c r="N4" s="7"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" ht="31.5" spans="1:15">
+    <row r="5" ht="47.25" spans="1:15">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>32</v>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -24,7 +24,7 @@
     <author>vhuang1</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,6 +65,21 @@
     <t>Conditions</t>
   </si>
   <si>
+    <t>Body Override</t>
+  </si>
+  <si>
+    <t>Exp Status</t>
+  </si>
+  <si>
+    <t>Exp Result</t>
+  </si>
+  <si>
+    <t>Save Fields</t>
+  </si>
+  <si>
+    <t>Variable Transform</t>
+  </si>
+  <si>
     <t>Endpoint</t>
   </si>
   <si>
@@ -77,24 +92,9 @@
     <t>Body Default</t>
   </si>
   <si>
-    <t>Body Override</t>
-  </si>
-  <si>
     <t>Tags</t>
   </si>
   <si>
-    <t>Exp Status</t>
-  </si>
-  <si>
-    <t>Exp Result</t>
-  </si>
-  <si>
-    <t>Save Fields</t>
-  </si>
-  <si>
-    <t>Variable Transform</t>
-  </si>
-  <si>
     <t>Wait</t>
   </si>
   <si>
@@ -104,15 +104,15 @@
     <t>Position</t>
   </si>
   <si>
+    <t>$[2].balance=50000.0</t>
+  </si>
+  <si>
     <t>positions</t>
   </si>
   <si>
     <t>default</t>
   </si>
   <si>
-    <t>$[2].balance=50000.0</t>
-  </si>
-  <si>
     <t>PRE</t>
   </si>
   <si>
@@ -131,16 +131,7 @@
     <t>[TestSetup]PRE</t>
   </si>
   <si>
-    <t>pacs.008_inbound</t>
-  </si>
-  <si>
-    <t>j_pacs.008_in</t>
-  </si>
-  <si>
     <t xml:space="preserve">{"amount": 100} </t>
-  </si>
-  <si>
-    <t>tag1</t>
   </si>
   <si>
     <t>$.amount=100.0</t>
@@ -150,6 +141,15 @@
 $.currency</t>
   </si>
   <si>
+    <t>pacs.008_inbound</t>
+  </si>
+  <si>
+    <t>j_pacs.008_in</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>OB_pacs008_1</t>
   </si>
   <si>
@@ -159,6 +159,16 @@
     <t>[Checkwith]Position</t>
   </si>
   <si>
+    <t xml:space="preserve">{"amount": ${IB_pacs008_1.$.amount}} </t>
+  </si>
+  <si>
+    <t>$.result.amount=${IB_pacs008_1.$.amount}
+Position.$[3].balance=-109</t>
+  </si>
+  <si>
+    <t>$.result.amount</t>
+  </si>
+  <si>
     <t>pacs.008_outbound</t>
   </si>
   <si>
@@ -166,16 +176,6 @@
   </si>
   <si>
     <t>x_pacs.008_out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"amount": ${IB_pacs008_1.$.amount}} </t>
-  </si>
-  <si>
-    <t>$.result.amount=${IB_pacs008_1.$.amount}
-Position.$[3].balance=-100</t>
-  </si>
-  <si>
-    <t>$.result.amount</t>
   </si>
   <si>
     <t>IB_pacs008_2</t>
@@ -434,6 +434,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -442,9 +493,93 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -455,141 +590,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -616,13 +616,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,13 +748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,151 +772,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,6 +825,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -842,35 +860,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,11 +882,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,9 +914,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,138 +927,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1475,8 +1475,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1484,17 +1484,17 @@
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.2857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.2190476190476" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.2761904761905" style="4" customWidth="1"/>
-    <col min="9" max="9" width="38.2666666666667" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.57142857142857" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.5809523809524" style="4" customWidth="1"/>
-    <col min="12" max="12" width="34.5714285714286" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.8761904761905" style="4" customWidth="1"/>
-    <col min="14" max="14" width="55.8571428571429" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8571428571429" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.2666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5809523809524" style="4" customWidth="1"/>
+    <col min="7" max="7" width="82.7142857142857" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26.8761904761905" style="4" customWidth="1"/>
+    <col min="9" max="9" width="55.8571428571429" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.71428571428571" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.2190476190476" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.2761904761905" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.57142857142857" style="4" customWidth="1"/>
     <col min="15" max="15" width="9" style="5"/>
     <col min="16" max="1018" width="9.42857142857143" style="4"/>
     <col min="1019" max="1019" width="9.42857142857143"/>
@@ -1556,24 +1556,24 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="6">
+        <v>200</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
-        <v>200</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:15">
@@ -1585,26 +1585,26 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="6">
+        <v>200</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6">
-        <v>200</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:15">
@@ -1620,37 +1620,37 @@
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="6">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="6">
-        <v>200</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="7"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" ht="47.25" spans="1:15">
+    <row r="5" ht="31.5" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1663,39 +1663,39 @@
       <c r="D5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="6">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="6">
-        <v>200</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="M5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="O5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="141.75" spans="1:15">
+    <row r="6" ht="94.5" spans="1:15">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1708,35 +1708,35 @@
       <c r="D6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>27</v>
+      <c r="F6" s="6">
+        <v>200</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="6">
-        <v>200</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>45</v>
+      <c r="K6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="O6" s="8"/>
     </row>
@@ -1771,7 +1771,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>47</v>
@@ -1785,7 +1785,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>50</v>
@@ -1799,7 +1799,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
@@ -1813,7 +1813,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>53</v>
@@ -1827,7 +1827,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>50</v>
@@ -1841,7 +1841,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>50</v>
@@ -1855,7 +1855,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>53</v>
@@ -1869,7 +1869,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>50</v>
@@ -1883,7 +1883,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>50</v>
@@ -1897,7 +1897,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>53</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="2" ht="120" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>65</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>66</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>69</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>71</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>74</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>75</v>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -163,7 +163,7 @@
   </si>
   <si>
     <t>$.result.amount=${IB_pacs008_1.$.amount}
-Position.$[3].balance=-109</t>
+Position.$[3].balance=-100</t>
   </si>
   <si>
     <t>$.result.amount</t>
@@ -188,7 +188,7 @@
   <si>
     <t>$.amount=100.0
 Position.$[3].balance=+100
-Position.postcheck.$[3].currency=CNY
+Position.postcheck.$[2].currency=HKD
 Position.precheck.$[3].currency=CNY
 db_name1.users.email [name=Alice Brown;age=27]=alice@example.com
 db_name2.users.email [name=Alice Brown;age=27][OrderBy=id DESC]=alice@example.com</t>
@@ -410,10 +410,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -432,6 +432,20 @@
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -447,20 +461,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -471,9 +471,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,14 +525,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,29 +549,6 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,42 +560,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -582,6 +568,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +583,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -616,25 +616,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,157 +790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,24 +825,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -861,8 +843,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,17 +864,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,6 +888,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -927,138 +927,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1476,7 +1476,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -197,9 +197,9 @@
     <t>$.amount</t>
   </si>
   <si>
-    <t>to_lower(${IB_pacs008_1.$.currency},IB_pacs008_1.$.currency)
-to_upper(${IB_pacs008_1.$.currency})
-to_upper({{msg_id}})</t>
+    <t>to_lowercase(${IB_pacs008_1.$.currency})
+to_uppercase({{msg_id}})
+assign_value(${OB_pacs008_1.$.result.amount},my_amount)</t>
   </si>
   <si>
     <t>Environment</t>
@@ -410,10 +410,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -432,6 +432,34 @@
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -441,16 +469,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -461,6 +485,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -470,14 +502,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -507,14 +531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -531,35 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -569,15 +556,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,16 +590,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -616,187 +616,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,6 +821,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,21 +914,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -911,154 +922,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1475,8 +1475,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>Run</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>$.result.amount</t>
+  </si>
+  <si>
+    <t>to_uppercase({{msg_id}})</t>
   </si>
   <si>
     <t>pacs.008_outbound</t>
@@ -198,7 +201,6 @@
   </si>
   <si>
     <t>to_lowercase(${IB_pacs008_1.$.currency})
-to_uppercase({{msg_id}})
 assign_value(${OB_pacs008_1.$.result.amount},my_amount)</t>
   </si>
   <si>
@@ -434,9 +436,130 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -447,6 +570,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,134 +586,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -616,187 +618,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,6 +823,78 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,215 +924,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1475,8 +1477,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1675,18 +1677,20 @@
       <c r="H5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="J5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>31</v>
@@ -1700,13 +1704,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -1715,13 +1719,13 @@
         <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>29</v>
@@ -1768,142 +1772,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1940,10 +1944,10 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="120" spans="1:2">
@@ -1951,15 +1955,15 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1985,13 +1989,13 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
@@ -1999,21 +2003,21 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2039,10 +2043,10 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
@@ -2050,15 +2054,15 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -125,7 +125,7 @@
     <t>IB_pacs008_1</t>
   </si>
   <si>
-    <t>pacs008 in cny 100</t>
+    <t xml:space="preserve">Executes an inbound credit transfer (pacs008 in cny 100) of 100 CNY. </t>
   </si>
   <si>
     <t>[TestSetup]PRE</t>
@@ -153,7 +153,7 @@
     <t>OB_pacs008_1</t>
   </si>
   <si>
-    <t>pacs008 out cny 100</t>
+    <t xml:space="preserve">Executes an outbound credit transfer (pacs008 out cny 100) of 100 CNY. </t>
   </si>
   <si>
     <t>[Checkwith]Position</t>
@@ -412,10 +412,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -434,6 +434,33 @@
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -451,15 +478,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,17 +540,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,9 +556,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,55 +570,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,21 +592,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -618,13 +618,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,79 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,48 +792,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -769,36 +799,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,26 +827,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,16 +878,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,154 +924,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1477,8 +1477,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1616,7 +1616,7 @@
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1706,7 +1706,7 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="7" t="s">

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -412,10 +412,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -434,6 +434,154 @@
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -444,164 +592,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -618,19 +618,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,163 +780,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,26 +829,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,11 +875,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,143 +913,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1609,7 +1609,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:15">
+    <row r="4" ht="63" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -1652,14 +1652,14 @@
       </c>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" ht="31.5" spans="1:15">
+    <row r="5" ht="63" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="6" t="s">

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Run</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Save Fields</t>
   </si>
   <si>
-    <t>Variable Transform</t>
-  </si>
-  <si>
     <t>Endpoint</t>
   </si>
   <si>
@@ -138,7 +135,8 @@
   </si>
   <si>
     <t>$.amount
-$.currency</t>
+$.currency
+to_lowercase($.currency,lowercase_currency)</t>
   </si>
   <si>
     <t>pacs.008_inbound</t>
@@ -167,9 +165,6 @@
   </si>
   <si>
     <t>$.result.amount</t>
-  </si>
-  <si>
-    <t>to_uppercase({{msg_id}})</t>
   </si>
   <si>
     <t>pacs.008_outbound</t>
@@ -192,16 +187,12 @@
     <t>$.amount=100.0
 Position.$[3].balance=+100
 Position.postcheck.$[2].currency=HKD
-Position.precheck.$[3].currency=CNY
+Position.precheck.$[3].currency=to_uppercase(${lowercase_currency})
 db_name1.users.email [name=Alice Brown;age=27]=alice@example.com
 db_name2.users.email [name=Alice Brown;age=27][OrderBy=id DESC]=alice@example.com</t>
   </si>
   <si>
     <t>$.amount</t>
-  </si>
-  <si>
-    <t>to_lowercase(${IB_pacs008_1.$.currency})
-assign_value(${OB_pacs008_1.$.result.amount},my_amount)</t>
   </si>
   <si>
     <t>Environment</t>
@@ -412,9 +403,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -433,32 +424,6 @@
     <font>
       <sz val="10.5"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -470,6 +435,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -480,17 +494,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,24 +532,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,15 +547,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,22 +562,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,14 +584,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -618,187 +609,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,11 +818,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,26 +857,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,30 +889,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -924,143 +897,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1475,10 +1466,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1491,18 +1482,17 @@
     <col min="6" max="6" width="10.5809523809524" style="4" customWidth="1"/>
     <col min="7" max="7" width="82.7142857142857" style="4" customWidth="1"/>
     <col min="8" max="8" width="26.8761904761905" style="4" customWidth="1"/>
-    <col min="9" max="9" width="55.8571428571429" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.71428571428571" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.2190476190476" style="4" customWidth="1"/>
-    <col min="13" max="13" width="18.2761904761905" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.57142857142857" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9" style="5"/>
-    <col min="16" max="1018" width="9.42857142857143" style="4"/>
-    <col min="1019" max="1019" width="9.42857142857143"/>
+    <col min="9" max="9" width="20" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.71428571428571" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.2190476190476" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.2761904761905" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.57142857142857" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9" style="5"/>
+    <col min="15" max="1017" width="9.42857142857143" style="4"/>
+    <col min="1018" max="1018" width="9.42857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:15">
+    <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1545,16 +1535,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:14">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1563,27 +1550,26 @@
         <v>200</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
       <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:15">
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1592,157 +1578,149 @@
         <v>200</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7"/>
       <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" ht="63" spans="1:15">
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" ht="63" spans="1:14">
       <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="6">
         <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" ht="63" spans="1:14">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" ht="63" spans="1:15">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="6">
         <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="94.5" spans="1:14">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="94.5" spans="1:15">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="6">
         <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="L6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="9" customHeight="1"/>
   </sheetData>
@@ -1772,142 +1750,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1944,26 +1922,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="120" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1989,35 +1967,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2043,26 +2021,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -14,6 +14,12 @@
     <sheet name="BodyTemplates" sheetId="3" r:id="rId4"/>
     <sheet name="BodyDefaults" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="Endpoint">Endpoints[Endpoint]</definedName>
+    <definedName name="Header">Headers[HeaderName]</definedName>
+    <definedName name="BodyTemplate">BodyTemplates[TemplateName]</definedName>
+    <definedName name="BodyDefault">BodyDefaults[Name]</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -128,7 +134,7 @@
     <t>[TestSetup]PRE</t>
   </si>
   <si>
-    <t xml:space="preserve">{"amount": 100} </t>
+    <t>amount: 100</t>
   </si>
   <si>
     <t>$.amount=100.0</t>
@@ -154,10 +160,11 @@
     <t xml:space="preserve">Executes an outbound credit transfer (pacs008 out cny 100) of 100 CNY. </t>
   </si>
   <si>
-    <t>[Checkwith]Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"amount": ${IB_pacs008_1.$.amount}} </t>
+    <t>[CheckWith]Position</t>
+  </si>
+  <si>
+    <t>amount: ${IB_pacs008_1.$.amount}
+currency: to_uppercase(${lowercase_currency})</t>
   </si>
   <si>
     <t>$.result.amount=${IB_pacs008_1.$.amount}
@@ -180,7 +187,7 @@
   </si>
   <si>
     <t>[TestSetup]PRE
-[Checkwith]Position
+[CheckWith]Position
 [TestTeardown]PRE</t>
   </si>
   <si>
@@ -347,55 +354,43 @@
     <t>Name</t>
   </si>
   <si>
-    <t>{
-  "transaction_id": "IN123457",
-  "amount": 1500.00,
-  "currency": "CNY",
-  "debtor": {
-    "name": "Oliver Queen",
-    "phones": [
-      "555-987-1234",
-      "555-987-1235"
-    ],
-    "email": "oliver.queen@example.com",
-    "address": "500 Green Arrow Street"
-  },
-  "creditor": {
-    "name": "Hal Jordan",
-    "phones": [
-      "555-789-1234",
-      "555-789-1235"
-    ],
-    "email": "hal.jordan@example.com",
-    "address": "3000 Coast City"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "InstrId": "OUT123456",
-  "EndToEndId": "E2EOUT123456",
-  "amount": 1500.00,
-  "currency": "CNY",
-  "debtor": {
-    "name": "Vick Huang",
-    "phones": [
-      "555-555-5555",
-      "555-555-5556"
-    ],
-    "email": "vick.huang@example.com",
-    "address": "600 Green Arrow Street"
-  },
-  "creditor": {
-    "name": "Jay Huang",
-    "phones": [
-      "555-666-1234",
-      "555-666-1235"
-    ],
-    "email": "jay.huang@example.com",
-    "address": "3333 Coast City"
-  }
-}</t>
+    <t>transaction_id: IN123457
+amount: 1500.00
+currency: CNY
+debtor:
+  name: Oliver Queen
+  phones:
+    - 555-987-1234
+    - 555-987-1235
+  email: oliver.queen@example.com
+  address: 500 Green Arrow Street
+creditor:
+  name: Hal Jordan
+  phones:
+    - 555-789-1234
+    - 555-789-1235
+  email: hal.jordan@example.com
+  address: 3000 Coast City</t>
+  </si>
+  <si>
+    <t>InstrId: OUT123456
+EndToEndId: E2EOUT123456
+amount: 1500.00
+currency: CNY
+debtor:
+  name: Vick Huang
+  phones:
+    - 555-555-5555
+    - 555-555-5556
+  email: vick.huang@example.com
+  address: 600 Green Arrow Street
+creditor:
+  name: Jay Huang
+  phones:
+    - 555-666-1234
+    - 555-666-1235
+  email: jay.huang@example.com
+  address: 3333 Coast City</t>
   </si>
 </sst>
 </file>
@@ -403,9 +398,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -427,6 +422,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -436,27 +444,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +458,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -477,16 +472,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,26 +487,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,23 +512,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,14 +557,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,6 +566,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,43 +604,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,13 +700,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,121 +754,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,25 +814,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,17 +843,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,26 +904,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -920,138 +915,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,6 +1126,535 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1206,6 +1730,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:N6" totalsRowShown="0">
+  <tableColumns count="14">
+    <tableColumn id="1" name="Run" dataDxfId="0"/>
+    <tableColumn id="2" name="TCID" dataDxfId="1"/>
+    <tableColumn id="3" name="Descriptions" dataDxfId="2"/>
+    <tableColumn id="4" name="Conditions"/>
+    <tableColumn id="5" name="Body Override" dataDxfId="3"/>
+    <tableColumn id="6" name="Exp Status" dataDxfId="4"/>
+    <tableColumn id="7" name="Exp Result" dataDxfId="5"/>
+    <tableColumn id="8" name="Save Fields" dataDxfId="6"/>
+    <tableColumn id="9" name="Endpoint" dataDxfId="7"/>
+    <tableColumn id="10" name="Headers" dataDxfId="8"/>
+    <tableColumn id="11" name="Body Template" dataDxfId="9"/>
+    <tableColumn id="12" name="Body Default" dataDxfId="10"/>
+    <tableColumn id="13" name="Tags" dataDxfId="11"/>
+    <tableColumn id="14" name="Wait" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Endpoints" displayName="Endpoints" ref="A1:D10" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Environment" dataDxfId="13"/>
+    <tableColumn id="2" name="Endpoint" dataDxfId="14"/>
+    <tableColumn id="3" name="Method" dataDxfId="15"/>
+    <tableColumn id="4" name="Path" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Headers" displayName="Headers" ref="A1:B3" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="HeaderName" dataDxfId="17"/>
+    <tableColumn id="2" name="Content" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="BodyTemplates" displayName="BodyTemplates" ref="A1:C3" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="TemplateName" dataDxfId="19"/>
+    <tableColumn id="2" name="Format" dataDxfId="20"/>
+    <tableColumn id="3" name="Content" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="BodyDefaults" displayName="BodyDefaults" ref="A1:B3" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Content"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1469,7 +2058,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1478,9 +2067,9 @@
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.2857142857143" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.8571428571429" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.2666666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.7142857142857" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.5809523809524" style="4" customWidth="1"/>
-    <col min="7" max="7" width="82.7142857142857" style="4" customWidth="1"/>
+    <col min="7" max="7" width="81" style="4" customWidth="1"/>
     <col min="8" max="8" width="26.8761904761905" style="4" customWidth="1"/>
     <col min="9" max="9" width="20" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.71428571428571" style="4" customWidth="1"/>
@@ -1724,10 +2313,27 @@
     </row>
     <row r="9" customHeight="1"/>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+      <formula1>Endpoint</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
+      <formula1>Header</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6">
+      <formula1>BodyDefault</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
+      <formula1>BodyTemplate</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1737,7 +2343,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1745,7 +2351,7 @@
     <col min="1" max="1" width="17.552380952381" customWidth="1"/>
     <col min="2" max="2" width="20.7809523809524" customWidth="1"/>
     <col min="3" max="3" width="17.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="57.1142857142857" customWidth="1"/>
+    <col min="4" max="4" width="66.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
@@ -1890,18 +2496,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://localhost:5000/api/inbound_payment.json" tooltip="http://localhost:5000/api/inbound_payment.json"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://localhost:5000/api/outbound_payment.xml" tooltip="http://localhost:5000/api/outbound_payment.xml"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://localhost:5000/api/positions2" tooltip="http://localhost:5000/api/positions2"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.json"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://vhuang2.free.beeceptor.com/api/positions" tooltip="https://vhuang2.free.beeceptor.com/api/positions"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.json"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://vhuang1.free.beeceptor.com/api/positions" tooltip="https://vhuang1.free.beeceptor.com/api/positions"/>
+    <hyperlink ref="D2" r:id="rId2" display="http://localhost:5000/api/inbound_payment.json" tooltip="http://localhost:5000/api/inbound_payment.json"/>
+    <hyperlink ref="D3" r:id="rId3" display="http://localhost:5000/api/outbound_payment.xml" tooltip="http://localhost:5000/api/outbound_payment.xml"/>
+    <hyperlink ref="D4" r:id="rId4" display="http://localhost:5000/api/positions2" tooltip="http://localhost:5000/api/positions2"/>
+    <hyperlink ref="D5" r:id="rId5" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.json"/>
+    <hyperlink ref="D6" r:id="rId6" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml"/>
+    <hyperlink ref="D7" r:id="rId7" display="https://vhuang2.free.beeceptor.com/api/positions" tooltip="https://vhuang2.free.beeceptor.com/api/positions"/>
+    <hyperlink ref="D8" r:id="rId8" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.json"/>
+    <hyperlink ref="D9" r:id="rId9" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml"/>
+    <hyperlink ref="D10" r:id="rId10" display="https://vhuang1.free.beeceptor.com/api/positions" tooltip="https://vhuang1.free.beeceptor.com/api/positions"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1911,12 +2520,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B10:B11"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.7809523809524" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="118.780952380952" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1947,6 +2556,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1956,13 +2568,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="14.7809523809524" customWidth="1"/>
-    <col min="3" max="3" width="118.780952380952" customWidth="1"/>
+    <col min="3" max="3" width="83.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
@@ -2001,6 +2613,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2010,13 +2625,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.552380952381" customWidth="1"/>
-    <col min="2" max="2" width="118.780952380952" customWidth="1"/>
+    <col min="2" max="2" width="63.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
@@ -2046,5 +2661,8 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -30,7 +30,7 @@
     <author>vhuang1</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,11 +57,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>Run</t>
   </si>
   <si>
+    <t>Suite</t>
+  </si>
+  <si>
     <t>TCID</t>
   </si>
   <si>
@@ -125,13 +128,16 @@
     <t>Y</t>
   </si>
   <si>
+    <t>Suite1</t>
+  </si>
+  <si>
     <t>IB_pacs008_1</t>
   </si>
   <si>
     <t xml:space="preserve">Executes an inbound credit transfer (pacs008 in cny 100) of 100 CNY. </t>
   </si>
   <si>
-    <t>[TestSetup]PRE</t>
+    <t>[SuiteSetup]PRE</t>
   </si>
   <si>
     <t>amount: 100</t>
@@ -181,6 +187,9 @@
   </si>
   <si>
     <t>x_pacs.008_out</t>
+  </si>
+  <si>
+    <t>Suite2</t>
   </si>
   <si>
     <t>IB_pacs008_2</t>
@@ -398,10 +407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -422,43 +431,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,9 +446,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,11 +473,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,11 +511,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,14 +542,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -549,15 +549,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,10 +573,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -583,11 +597,6 @@
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -604,13 +613,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,169 +775,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,21 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -839,6 +833,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,26 +870,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -902,6 +885,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -910,143 +908,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1733,9 +1742,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:N6" totalsRowShown="0">
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:O6" totalsRowShown="0">
+  <tableColumns count="15">
     <tableColumn id="1" name="Run" dataDxfId="0"/>
+    <tableColumn id="15" name="Suite"/>
     <tableColumn id="2" name="TCID" dataDxfId="1"/>
     <tableColumn id="3" name="Descriptions" dataDxfId="2"/>
     <tableColumn id="4" name="Conditions"/>
@@ -2055,33 +2065,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.2857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.8571428571429" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.7142857142857" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.5809523809524" style="4" customWidth="1"/>
-    <col min="7" max="7" width="81" style="4" customWidth="1"/>
-    <col min="8" max="8" width="26.8761904761905" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.71428571428571" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.2190476190476" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.2761904761905" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.57142857142857" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="5"/>
-    <col min="15" max="1017" width="9.42857142857143" style="4"/>
-    <col min="1018" max="1018" width="9.42857142857143"/>
+    <col min="2" max="2" width="7" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.2857142857143" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" style="4" customWidth="1"/>
+    <col min="6" max="6" width="42.7142857142857" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.5809523809524" style="4" customWidth="1"/>
+    <col min="8" max="8" width="81" style="4" customWidth="1"/>
+    <col min="9" max="9" width="26.8761904761905" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.71428571428571" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.2190476190476" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.2761904761905" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.57142857142857" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5"/>
+    <col min="16" max="1018" width="9.42857142857143" style="4"/>
+    <col min="1019" max="1019" width="9.42857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:14">
+    <row r="1" ht="15.75" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2124,206 +2135,220 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:14">
+    <row r="2" ht="16.5" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6">
         <v>200</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="I2" s="7"/>
       <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:14">
+    <row r="3" ht="15.75" customHeight="1" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6">
         <v>200</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="6" t="s">
         <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="8"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="8"/>
     </row>
-    <row r="4" ht="63" spans="1:14">
+    <row r="4" ht="63" spans="1:15">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="6">
+        <v>200</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" ht="63" spans="1:15">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="6">
+        <v>200</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="94.5" spans="1:15">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6">
+      <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6">
         <v>200</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="H6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" ht="63" spans="1:14">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="K6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="M6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="6">
-        <v>200</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="94.5" spans="1:14">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="6">
-        <v>200</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="9" customHeight="1"/>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
       <formula1>Endpoint</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
       <formula1>Header</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6">
       <formula1>BodyDefault</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6">
       <formula1>BodyTemplate</formula1>
     </dataValidation>
   </dataValidations>
@@ -2343,7 +2368,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A1" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2356,142 +2381,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2545,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -2531,26 +2556,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="120" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2593,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -2579,35 +2604,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2650,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -2636,26 +2661,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -128,7 +128,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Suite1</t>
+    <t>API_pacs008</t>
   </si>
   <si>
     <t>IB_pacs008_1</t>
@@ -189,7 +189,7 @@
     <t>x_pacs.008_out</t>
   </si>
   <si>
-    <t>Suite2</t>
+    <t>API_pacs008_2</t>
   </si>
   <si>
     <t>IB_pacs008_2</t>
@@ -407,10 +407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -433,21 +433,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,22 +445,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +468,38 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,22 +514,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -534,16 +535,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,13 +545,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,9 +573,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -597,6 +592,11 @@
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -613,25 +613,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,61 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,25 +781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,61 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,6 +822,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -837,24 +870,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -866,21 +881,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,142 +924,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,6 +1079,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2068,7 +2071,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -2166,7 +2169,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="8"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:15">
       <c r="A3" s="6" t="s">
@@ -2197,13 +2200,13 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="8"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" ht="63" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2242,13 +2245,13 @@
       <c r="N4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="8"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" ht="63" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2287,7 +2290,7 @@
       <c r="N5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2295,7 +2298,7 @@
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2334,7 +2337,7 @@
       <c r="N6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="8"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="9" customHeight="1"/>
   </sheetData>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Headers" sheetId="2" r:id="rId3"/>
     <sheet name="BodyTemplates" sheetId="3" r:id="rId4"/>
     <sheet name="BodyDefaults" sheetId="4" r:id="rId5"/>
+    <sheet name="EnvVariables" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Endpoint">Endpoints[Endpoint]</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>Run</t>
   </si>
@@ -401,6 +402,18 @@
   email: jay.huang@example.com
   address: 3333 Coast City</t>
   </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Variable Value</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Vick Huang</t>
+  </si>
 </sst>
 </file>
 
@@ -408,9 +421,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -426,14 +439,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,45 +473,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,18 +495,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,9 +523,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,9 +537,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,8 +568,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,17 +592,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,19 +632,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,157 +800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,11 +835,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,7 +902,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,45 +922,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -924,148 +937,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1074,16 +1097,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2070,274 +2093,274 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.2857142857143" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.8571428571429" style="4" customWidth="1"/>
-    <col min="6" max="6" width="42.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.5809523809524" style="4" customWidth="1"/>
-    <col min="8" max="8" width="81" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.8761904761905" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.71428571428571" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.2190476190476" style="4" customWidth="1"/>
-    <col min="13" max="13" width="18.2761904761905" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.57142857142857" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9" style="5"/>
-    <col min="16" max="1018" width="9.42857142857143" style="4"/>
+    <col min="1" max="1" width="5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.2857142857143" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" style="8" customWidth="1"/>
+    <col min="6" max="6" width="42.7142857142857" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.5809523809524" style="8" customWidth="1"/>
+    <col min="8" max="8" width="81" style="8" customWidth="1"/>
+    <col min="9" max="9" width="26.8761904761905" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.71428571428571" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.2190476190476" style="8" customWidth="1"/>
+    <col min="13" max="13" width="18.2761904761905" style="8" customWidth="1"/>
+    <col min="14" max="14" width="5.57142857142857" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9" style="9"/>
+    <col min="16" max="1018" width="9.42857142857143" style="8"/>
     <col min="1019" max="1019" width="9.42857142857143"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10">
         <v>200</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10">
         <v>200</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" ht="63" spans="1:15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="10">
         <v>200</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="9"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" ht="63" spans="1:15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="10">
         <v>200</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="1:15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="10">
         <v>200</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="9" customHeight="1"/>
   </sheetData>
@@ -2383,142 +2406,142 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2558,26 +2581,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" ht="120" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2606,35 +2629,35 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2663,26 +2686,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2693,4 +2716,53 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="16377" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="16378" max="16384" width="9.11428571428571" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Vick Huang" tooltip="http://www.baidu.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,8 @@
     <t>amount: 100</t>
   </si>
   <si>
-    <t>$.amount=100.0</t>
+    <t>$.amount=100.0
+db_name1.users.email [name=Alice Brown;age=27]=alice@example.com</t>
   </si>
   <si>
     <t>$.amount
@@ -171,7 +172,7 @@
   </si>
   <si>
     <t>amount: ${IB_pacs008_1.$.amount}
-currency: to_uppercase(${lowercase_currency})</t>
+currency: to_uppercase(${IB_pacs008_1.lowercase_currency})</t>
   </si>
   <si>
     <t>$.result.amount=${IB_pacs008_1.$.amount}
@@ -204,8 +205,7 @@
     <t>$.amount=100.0
 Position.$[3].balance=+100
 Position.postcheck.$[2].currency=HKD
-Position.precheck.$[3].currency=to_uppercase(${lowercase_currency})
-db_name1.users.email [name=Alice Brown;age=27]=alice@example.com
+Position.precheck.$[3].currency=to_uppercase(${IB_pacs008_1.lowercase_currency})
 db_name2.users.email [name=Alice Brown;age=27][OrderBy=id DESC]=alice@example.com</t>
   </si>
   <si>
@@ -420,10 +420,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -453,7 +453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,15 +461,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -480,17 +475,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,54 +489,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -570,15 +512,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,11 +593,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,13 +626,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,169 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,17 +835,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,11 +853,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,40 +898,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -937,142 +937,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,6 +1101,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2093,8 +2096,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -2104,7 +2107,7 @@
     <col min="3" max="3" width="15" style="8" customWidth="1"/>
     <col min="4" max="4" width="21.2857142857143" style="8" customWidth="1"/>
     <col min="5" max="5" width="19.8571428571429" style="8" customWidth="1"/>
-    <col min="6" max="6" width="42.7142857142857" style="8" customWidth="1"/>
+    <col min="6" max="6" width="45" style="8" customWidth="1"/>
     <col min="7" max="7" width="10.5809523809524" style="8" customWidth="1"/>
     <col min="8" max="8" width="81" style="8" customWidth="1"/>
     <col min="9" max="9" width="26.8761904761905" style="8" customWidth="1"/>
@@ -2179,7 +2182,7 @@
       <c r="G2" s="10">
         <v>200</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="11"/>
@@ -2192,7 +2195,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="13"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:15">
       <c r="A3" s="10" t="s">
@@ -2208,7 +2211,7 @@
       <c r="G3" s="10">
         <v>200</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -2223,13 +2226,13 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="13"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" ht="63" spans="1:15">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -2247,7 +2250,7 @@
       <c r="G4" s="10">
         <v>200</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -2268,13 +2271,13 @@
       <c r="N4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="13"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" ht="63" spans="1:15">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2292,7 +2295,7 @@
       <c r="G5" s="10">
         <v>200</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -2313,15 +2316,15 @@
       <c r="N5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="94.5" spans="1:15">
+    <row r="6" ht="78.75" spans="1:15">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -2339,7 +2342,7 @@
       <c r="G6" s="10">
         <v>200</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -2360,7 +2363,7 @@
       <c r="N6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="13"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="9" customHeight="1"/>
   </sheetData>
@@ -2723,7 +2726,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>

--- a/test_cases/api_test_cases.xlsx
+++ b/test_cases/api_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="602"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="941" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="BodyTemplates" sheetId="3" r:id="rId4"/>
     <sheet name="BodyDefaults" sheetId="4" r:id="rId5"/>
     <sheet name="EnvVariables" sheetId="6" r:id="rId6"/>
+    <sheet name="DBConfigs" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Endpoint">Endpoints[Endpoint]</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
   <si>
     <t>Run</t>
   </si>
@@ -414,16 +415,82 @@
   <si>
     <t>Vick Huang</t>
   </si>
+  <si>
+    <t>DatabaseName</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>ServiceName</t>
+  </si>
+  <si>
+    <t>db_name1</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>vhuang1</t>
+  </si>
+  <si>
+    <t>Apj.com1</t>
+  </si>
+  <si>
+    <t>10.191.111.77</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>db_name2</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>uat_user</t>
+  </si>
+  <si>
+    <t>uat_password</t>
+  </si>
+  <si>
+    <t>uat_host</t>
+  </si>
+  <si>
+    <t>uat_service_name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -439,6 +506,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -447,28 +519,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <name val="Segoe UI"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,19 +553,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -502,7 +561,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -510,9 +568,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,53 +582,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,6 +599,59 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -593,8 +659,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,19 +693,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,25 +819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,79 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,18 +861,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -806,7 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,24 +902,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -868,17 +917,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,11 +941,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,6 +973,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -932,143 +990,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,14 +1146,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1097,20 +1170,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2096,274 +2163,274 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.2857142857143" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.8571428571429" style="8" customWidth="1"/>
-    <col min="6" max="6" width="45" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.5809523809524" style="8" customWidth="1"/>
-    <col min="8" max="8" width="81" style="8" customWidth="1"/>
-    <col min="9" max="9" width="26.8761904761905" style="8" customWidth="1"/>
-    <col min="10" max="10" width="20" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.71428571428571" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.2190476190476" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.2761904761905" style="8" customWidth="1"/>
-    <col min="14" max="14" width="5.57142857142857" style="8" customWidth="1"/>
-    <col min="15" max="15" width="9" style="9"/>
-    <col min="16" max="1018" width="9.42857142857143" style="8"/>
+    <col min="1" max="1" width="5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15" style="10" customWidth="1"/>
+    <col min="4" max="4" width="21.2857142857143" style="10" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" style="10" customWidth="1"/>
+    <col min="6" max="6" width="45" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.5809523809524" style="10" customWidth="1"/>
+    <col min="8" max="8" width="81" style="10" customWidth="1"/>
+    <col min="9" max="9" width="26.8761904761905" style="10" customWidth="1"/>
+    <col min="10" max="10" width="20" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.71428571428571" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.2190476190476" style="10" customWidth="1"/>
+    <col min="13" max="13" width="18.2761904761905" style="10" customWidth="1"/>
+    <col min="14" max="14" width="5.57142857142857" style="10" customWidth="1"/>
+    <col min="15" max="15" width="9" style="11"/>
+    <col min="16" max="1018" width="9.42857142857143" style="10"/>
     <col min="1019" max="1019" width="9.42857142857143"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12">
         <v>200</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12">
         <v>200</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" ht="63" spans="1:15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="12">
         <v>200</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="14"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" ht="63" spans="1:15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="12">
         <v>200</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="78.75" spans="1:15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="12">
         <v>200</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="14"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="9" customHeight="1"/>
   </sheetData>
@@ -2409,142 +2476,142 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2584,26 +2651,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" ht="120" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2632,35 +2699,35 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2689,26 +2756,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2736,28 +2803,28 @@
     <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.7142857142857" style="1" customWidth="1"/>
     <col min="4" max="16377" width="9.11428571428571" style="1" customWidth="1"/>
-    <col min="16378" max="16384" width="9.11428571428571" style="2"/>
+    <col min="16378" max="16384" width="9.11428571428571" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2768,4 +2835,183 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.14285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.71428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="16382" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="9.11428571428571" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5432</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5432</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1521</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1521</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>